--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D8CF66-83DC-4F1E-A2F0-293AAE578A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0E07D-FE31-42A4-B15B-0730CCC1B6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH2,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH3,S1aH1,S2aH1,S1aH3,S3aH1,S3aH3</t>
+    <t>S2aH2,S3aH2,S1aH2</t>
+  </si>
+  <si>
+    <t>S2aH3,S3aH3,S1aH1,S2aH1,S3aH1,S1aH3</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH3,S1aH1,S2aH1,S1aH3,S3aH1,S3aH3</v>
+        <v>S2aH3,S3aH3,S1aH1,S2aH1,S3aH1,S1aH3</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH2,S2aH2</v>
+        <v>S2aH2,S3aH2,S1aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7E5E6D-FB1E-4B13-8CDE-F7475325060B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CDA3CE-4FD6-4975-A7FB-64D39BA27E20}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04B407E-8798-4BAC-9545-4451E1AB11EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3819DFA4-6044-4B4B-A7EF-C5143A2E9E98}">
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75D40D-F533-47C0-A931-B8AACC954BF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A405388-55C7-4AC5-B93B-CF46AC5AA750}">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
